--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UniversalCloud\UC-MehndiDesigns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785B398D-CF62-4D57-84CB-B2BEAB876352}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325512BC-98DE-4C80-85B2-EE5C4373B22F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="249" xr2:uid="{B8895C67-6952-4A81-99F9-7D657C537D61}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="719">
   <si>
     <t>Headers</t>
   </si>
@@ -87,6 +87,2106 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/51.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/52.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/53.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/54.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/55.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/56.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/57.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/58.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/59.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/60.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/61.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/62.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/63.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/64.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/65.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/66.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/67.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/68.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/69.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/70.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/71.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/72.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/73.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/74.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/75.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/76.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/77.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/78.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/79.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/80.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/81.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/82.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/83.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/84.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/85.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/86.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/87.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/88.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/89.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/90.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/91.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/92.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/93.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/94.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/95.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/96.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/97.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/98.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/99.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/100.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/TH/101.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/51.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/52.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/53.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/54.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/55.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/56.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/57.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/58.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/59.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/60.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/61.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/62.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/63.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/64.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/65.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/66.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/67.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/68.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/69.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/70.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/71.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/72.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/73.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/74.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/75.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/76.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/77.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/78.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/79.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/80.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/81.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/82.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/83.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/84.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/85.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/86.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/87.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/88.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/89.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/90.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/91.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/92.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/93.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/94.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/95.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/96.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/97.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/98.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/99.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/100.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C1/HD/101.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/51.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/52.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/53.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/54.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/55.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/56.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/57.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/58.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/59.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/60.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/61.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/62.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/63.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/64.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/65.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/66.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/67.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/68.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/69.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/70.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/71.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/72.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/73.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/74.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/75.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/76.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/77.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/78.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/79.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/80.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/81.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/82.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/83.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/HD/84.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/51.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/52.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/53.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/54.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/55.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/56.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/57.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/58.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/59.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/60.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/61.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/62.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/63.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/64.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/65.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/66.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/67.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/68.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/69.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/70.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/71.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/72.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/73.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/74.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/75.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/76.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/77.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/78.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/79.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/80.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/81.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/82.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/83.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C2/TH/84.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/51.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/TH/52.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/51.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C3/HD/52.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C4/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/51.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/52.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/53.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/54.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/55.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/56.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/57.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/58.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/59.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/60.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/61.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/62.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/63.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/64.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/65.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/66.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/67.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/68.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/69.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/70.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/71.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/72.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/HD/73.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/51.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/52.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/53.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/54.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/55.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/56.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/57.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/58.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/59.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/60.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/61.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/62.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/63.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/64.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/65.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/66.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/67.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/68.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/69.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/70.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/71.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/72.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-MehndiDesigns/master/C5/TH/73.png</t>
   </si>
 </sst>
 </file>
@@ -476,10 +2576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E2BA85-0A0D-4BBD-8243-7EDE44B35083}">
-  <dimension ref="A1:AE51"/>
+  <dimension ref="A1:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,241 +2680,2424 @@
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2"/>
-      <c r="H2" s="6"/>
+      <c r="D2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>574</v>
+      </c>
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>575</v>
+      </c>
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>576</v>
+      </c>
       <c r="X4" s="1"/>
     </row>
     <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>577</v>
+      </c>
       <c r="X5" s="1"/>
     </row>
     <row r="6" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>578</v>
+      </c>
       <c r="X6" s="1"/>
     </row>
     <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="H7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>579</v>
+      </c>
       <c r="X7" s="1"/>
     </row>
     <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="H8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>580</v>
+      </c>
       <c r="X8" s="1"/>
     </row>
     <row r="9" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="H9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>581</v>
+      </c>
       <c r="X9" s="1"/>
     </row>
     <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="H10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>582</v>
+      </c>
       <c r="X10" s="1"/>
     </row>
     <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="H11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>583</v>
+      </c>
       <c r="X11" s="1"/>
     </row>
     <row r="12" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="H12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>584</v>
+      </c>
       <c r="X12" s="1"/>
     </row>
     <row r="13" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="H13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>585</v>
+      </c>
       <c r="X13" s="1"/>
     </row>
     <row r="14" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="H14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>586</v>
+      </c>
       <c r="X14" s="1"/>
     </row>
     <row r="15" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="H15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>587</v>
+      </c>
       <c r="X15" s="1"/>
     </row>
     <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>588</v>
+      </c>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="6"/>
+    <row r="17" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>589</v>
+      </c>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="6"/>
+    <row r="18" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>590</v>
+      </c>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H19" s="6"/>
+    <row r="19" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>591</v>
+      </c>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H20" s="6"/>
+    <row r="20" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>592</v>
+      </c>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H21" s="6"/>
+    <row r="21" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>593</v>
+      </c>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H22" s="6"/>
+    <row r="22" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>594</v>
+      </c>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H23" s="6"/>
+    <row r="23" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>595</v>
+      </c>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H24" s="6"/>
+    <row r="24" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>596</v>
+      </c>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H25" s="6"/>
+    <row r="25" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>597</v>
+      </c>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="6"/>
+    <row r="26" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>598</v>
+      </c>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H27" s="6"/>
+    <row r="27" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>599</v>
+      </c>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H28" s="6"/>
+    <row r="28" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>600</v>
+      </c>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H29" s="6"/>
+    <row r="29" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>601</v>
+      </c>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H30" s="6"/>
+    <row r="30" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>602</v>
+      </c>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H31" s="6"/>
+    <row r="31" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>603</v>
+      </c>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H32" s="6"/>
+    <row r="32" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>604</v>
+      </c>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H33" s="6"/>
+    <row r="33" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>605</v>
+      </c>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H34" s="6"/>
+    <row r="34" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>606</v>
+      </c>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H35" s="6"/>
+    <row r="35" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>607</v>
+      </c>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H36" s="6"/>
+    <row r="36" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>608</v>
+      </c>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H37" s="6"/>
+    <row r="37" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>609</v>
+      </c>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H38" s="6"/>
+    <row r="38" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>610</v>
+      </c>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H39" s="6"/>
+    <row r="39" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>611</v>
+      </c>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H40" s="6"/>
+    <row r="40" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>612</v>
+      </c>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H41" s="6"/>
+    <row r="41" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>613</v>
+      </c>
       <c r="X41" s="1"/>
     </row>
-    <row r="42" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H42" s="6"/>
+    <row r="42" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>614</v>
+      </c>
       <c r="X42" s="1"/>
     </row>
-    <row r="43" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H43" s="6"/>
+    <row r="43" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>615</v>
+      </c>
       <c r="X43" s="1"/>
     </row>
-    <row r="44" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H44" s="6"/>
+    <row r="44" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>616</v>
+      </c>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H45" s="6"/>
+    <row r="45" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>617</v>
+      </c>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H46" s="6"/>
+    <row r="46" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>618</v>
+      </c>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H47" s="6"/>
+    <row r="47" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>619</v>
+      </c>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H48" s="6"/>
+    <row r="48" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>620</v>
+      </c>
       <c r="X48" s="1"/>
     </row>
-    <row r="49" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H49" s="6"/>
+    <row r="49" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>621</v>
+      </c>
       <c r="X49" s="1"/>
     </row>
-    <row r="50" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H50" s="6"/>
+    <row r="50" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="X50" s="1"/>
     </row>
-    <row r="51" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H51" s="6"/>
+    <row r="51" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>623</v>
+      </c>
       <c r="X51" s="1"/>
+    </row>
+    <row r="52" spans="4:24" ht="120" x14ac:dyDescent="0.25">
+      <c r="D52" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="53" spans="4:24" ht="120" x14ac:dyDescent="0.25">
+      <c r="D53" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="54" spans="4:24" ht="120" x14ac:dyDescent="0.25">
+      <c r="D54" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="55" spans="4:24" ht="120" x14ac:dyDescent="0.25">
+      <c r="D55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="56" spans="4:24" ht="120" x14ac:dyDescent="0.25">
+      <c r="D56" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="57" spans="4:24" ht="120" x14ac:dyDescent="0.25">
+      <c r="D57" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="58" spans="4:24" ht="120" x14ac:dyDescent="0.25">
+      <c r="D58" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="59" spans="4:24" ht="120" x14ac:dyDescent="0.25">
+      <c r="D59" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="60" spans="4:24" ht="120" x14ac:dyDescent="0.25">
+      <c r="D60" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="61" spans="4:24" ht="120" x14ac:dyDescent="0.25">
+      <c r="D61" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="62" spans="4:24" ht="120" x14ac:dyDescent="0.25">
+      <c r="D62" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="M62" s="8" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="63" spans="4:24" ht="120" x14ac:dyDescent="0.25">
+      <c r="D63" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="64" spans="4:24" ht="120" x14ac:dyDescent="0.25">
+      <c r="D64" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="M64" s="8" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="65" spans="4:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="D65" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="66" spans="4:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="D66" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="M66" s="8" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="67" spans="4:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="D67" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="68" spans="4:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="D68" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="M68" s="8" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="69" spans="4:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="D69" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="70" spans="4:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="D70" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="M70" s="8" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="71" spans="4:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="D71" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="72" spans="4:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="D72" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="73" spans="4:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="D73" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="74" spans="4:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="D74" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="M74" s="8" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="75" spans="4:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="D75" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="76" spans="4:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="D76" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="77" spans="4:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="D77" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="78" spans="4:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="D78" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="79" spans="4:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="D79" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="80" spans="4:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="D80" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="81" spans="4:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="D81" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="82" spans="4:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="D82" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="4:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="D83" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="84" spans="4:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="D84" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="85" spans="4:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="D85" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="86" spans="4:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="D86" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G86" s="8"/>
+    </row>
+    <row r="87" spans="4:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="D87" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" spans="4:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="D88" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" spans="4:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="D89" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" spans="4:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="D90" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" spans="4:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="D91" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G91" s="8"/>
+    </row>
+    <row r="92" spans="4:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="D92" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G92" s="8"/>
+    </row>
+    <row r="93" spans="4:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="D93" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G93" s="8"/>
+    </row>
+    <row r="94" spans="4:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="D94" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G94" s="8"/>
+    </row>
+    <row r="95" spans="4:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="D95" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G95" s="8"/>
+    </row>
+    <row r="96" spans="4:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="D96" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G96" s="8"/>
+    </row>
+    <row r="97" spans="4:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="D97" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G97" s="8"/>
+    </row>
+    <row r="98" spans="4:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="D98" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G98" s="8"/>
+    </row>
+    <row r="99" spans="4:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="D99" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G99" s="8"/>
+    </row>
+    <row r="100" spans="4:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="D100" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G100" s="8"/>
+    </row>
+    <row r="101" spans="4:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="D101" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G101" s="8"/>
+    </row>
+    <row r="102" spans="4:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="D102" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G102" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
